--- a/data/file.xlsx
+++ b/data/file.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orientalbank2016-my.sharepoint.com/personal/co02326_orientalbank_com/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\co02326\Desktop\Cohort008\AmazonAutomation\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF05741A-F843-4839-9488-0D0676672E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736B1DE0-0DDE-4178-896C-B0D2046CAFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19410" windowHeight="8970" xr2:uid="{9C2C00A5-6BF8-403A-A9CD-C0A97D3225C1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>ProductName</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>Headphones</t>
+  </si>
+  <si>
+    <t>Bags</t>
   </si>
 </sst>
 </file>
@@ -416,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8969C60-5DBD-4C4B-9F41-F73FFD19EDD8}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -439,6 +442,11 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
